--- a/Task 3/Forward_Selection.xlsx
+++ b/Task 3/Forward_Selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akira\Documents\GitHub\Introducion-to-Data-Science-Repo\Task 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED07E8BA-4CE1-428C-B37D-C2E2AA05FC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEC811C-70AD-40D4-ADC9-4D34B7AED58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D245B0E1-2E4B-4AAE-8376-0F66399939BF}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{D245B0E1-2E4B-4AAE-8376-0F66399939BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="97">
   <si>
     <t>Features</t>
   </si>
@@ -294,6 +294,39 @@
   </si>
   <si>
     <t>0.388</t>
+  </si>
+  <si>
+    <t>Gradient Bossting Resgrssor</t>
+  </si>
+  <si>
+    <t>int, price reduction</t>
+  </si>
+  <si>
+    <t>0.462</t>
+  </si>
+  <si>
+    <t>int, holiday</t>
+  </si>
+  <si>
+    <t>int, mnth</t>
+  </si>
+  <si>
+    <t>0.461</t>
+  </si>
+  <si>
+    <t>int, workingday</t>
+  </si>
+  <si>
+    <t>int, weekday</t>
+  </si>
+  <si>
+    <t>int, windspeed</t>
+  </si>
+  <si>
+    <t>int, yr</t>
+  </si>
+  <si>
+    <t>int, leaflets</t>
   </si>
 </sst>
 </file>
@@ -437,14 +470,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -454,22 +492,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -784,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4C426C-51C6-459F-B9F6-A722EB6EE2C8}">
-  <dimension ref="A2:C57"/>
+  <dimension ref="A2:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -796,20 +824,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -817,19 +845,19 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -837,10 +865,10 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -848,10 +876,10 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -859,10 +887,10 @@
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -870,10 +898,10 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -881,10 +909,10 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -892,10 +920,10 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -903,10 +931,10 @@
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -914,50 +942,50 @@
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -965,19 +993,19 @@
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -985,10 +1013,10 @@
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -996,10 +1024,10 @@
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1007,10 +1035,10 @@
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1018,10 +1046,10 @@
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1029,10 +1057,10 @@
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1040,10 +1068,10 @@
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1051,10 +1079,10 @@
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1062,50 +1090,50 @@
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1113,19 +1141,19 @@
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1133,10 +1161,10 @@
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1144,10 +1172,10 @@
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1155,10 +1183,10 @@
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1166,21 +1194,21 @@
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1188,10 +1216,10 @@
       <c r="A39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1199,10 +1227,10 @@
       <c r="A40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1210,10 +1238,10 @@
       <c r="A41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1221,178 +1249,326 @@
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="14"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A58:C58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Task 3/Forward_Selection.xlsx
+++ b/Task 3/Forward_Selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akira\Documents\GitHub\Introducion-to-Data-Science-Repo\Task 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEC811C-70AD-40D4-ADC9-4D34B7AED58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4C232D-A9E8-4853-820A-13315B4539F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{D245B0E1-2E4B-4AAE-8376-0F66399939BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D245B0E1-2E4B-4AAE-8376-0F66399939BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="117">
   <si>
     <t>Features</t>
   </si>
@@ -327,6 +327,66 @@
   </si>
   <si>
     <t>int, leaflets</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>instant, price reduction</t>
+  </si>
+  <si>
+    <t>0.460</t>
+  </si>
+  <si>
+    <t>0.435</t>
+  </si>
+  <si>
+    <t>instant, atemp</t>
+  </si>
+  <si>
+    <t>0.449</t>
+  </si>
+  <si>
+    <t>instant, weathersit</t>
+  </si>
+  <si>
+    <t>0.433</t>
+  </si>
+  <si>
+    <t>instant, holiday</t>
+  </si>
+  <si>
+    <t>instant, mnth</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>instant, season</t>
+  </si>
+  <si>
+    <t>0.446</t>
+  </si>
+  <si>
+    <t>instant, workingday</t>
+  </si>
+  <si>
+    <t>instant, weekday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant, weekday, windspeed </t>
+  </si>
+  <si>
+    <t>0.452</t>
+  </si>
+  <si>
+    <t>instant, weekday, yr</t>
+  </si>
+  <si>
+    <t>0.453</t>
+  </si>
+  <si>
+    <t>instant, weekday, leaflets</t>
   </si>
 </sst>
 </file>
@@ -470,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -498,6 +558,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -812,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4C426C-51C6-459F-B9F6-A722EB6EE2C8}">
-  <dimension ref="A2:C71"/>
+  <dimension ref="A2:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1426,7 +1491,7 @@
       <c r="A59" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -1434,136 +1499,286 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="A60" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="18" t="s">
         <v>88</v>
       </c>
+      <c r="C60" s="11"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="A71" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="13"/>
+      <c r="C72" s="14"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A72:C72"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A30:C30"/>

--- a/Task 3/Forward_Selection.xlsx
+++ b/Task 3/Forward_Selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akira\Documents\GitHub\Introducion-to-Data-Science-Repo\Task 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4C232D-A9E8-4853-820A-13315B4539F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43926F7D-FED0-4991-9972-7A7E8F762711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D245B0E1-2E4B-4AAE-8376-0F66399939BF}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{D245B0E1-2E4B-4AAE-8376-0F66399939BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="106">
   <si>
     <t>Features</t>
   </si>
@@ -305,88 +305,55 @@
     <t>0.462</t>
   </si>
   <si>
-    <t>int, holiday</t>
-  </si>
-  <si>
-    <t>int, mnth</t>
-  </si>
-  <si>
-    <t>0.461</t>
-  </si>
-  <si>
-    <t>int, workingday</t>
-  </si>
-  <si>
-    <t>int, weekday</t>
-  </si>
-  <si>
-    <t>int, windspeed</t>
-  </si>
-  <si>
-    <t>int, yr</t>
-  </si>
-  <si>
-    <t>int, leaflets</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>instant, price reduction</t>
-  </si>
-  <si>
-    <t>0.460</t>
-  </si>
-  <si>
-    <t>0.435</t>
-  </si>
-  <si>
-    <t>instant, atemp</t>
-  </si>
-  <si>
-    <t>0.449</t>
-  </si>
-  <si>
-    <t>instant, weathersit</t>
-  </si>
-  <si>
-    <t>0.433</t>
-  </si>
-  <si>
-    <t>instant, holiday</t>
-  </si>
-  <si>
-    <t>instant, mnth</t>
-  </si>
-  <si>
-    <t>0.455</t>
-  </si>
-  <si>
-    <t>instant, season</t>
-  </si>
-  <si>
-    <t>0.446</t>
-  </si>
-  <si>
-    <t>instant, workingday</t>
-  </si>
-  <si>
-    <t>instant, weekday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant, weekday, windspeed </t>
-  </si>
-  <si>
-    <t>0.452</t>
-  </si>
-  <si>
-    <t>instant, weekday, yr</t>
-  </si>
-  <si>
-    <t>0.453</t>
-  </si>
-  <si>
-    <t>instant, weekday, leaflets</t>
+    <t>0.404</t>
+  </si>
+  <si>
+    <t>0.401</t>
+  </si>
+  <si>
+    <t>0.395</t>
+  </si>
+  <si>
+    <t>int, weathersit, holiday</t>
+  </si>
+  <si>
+    <t>0.467</t>
+  </si>
+  <si>
+    <t>int, weathersit, holiday, mnth</t>
+  </si>
+  <si>
+    <t>0.458</t>
+  </si>
+  <si>
+    <t>int, weathersit, holiday, season</t>
+  </si>
+  <si>
+    <t>0.470</t>
+  </si>
+  <si>
+    <t>0.459</t>
+  </si>
+  <si>
+    <t>int, weathersit, holiday, season, workingday</t>
+  </si>
+  <si>
+    <t>int, weathersit, holiday, season, weekday</t>
+  </si>
+  <si>
+    <t>0.451</t>
+  </si>
+  <si>
+    <t>int, weathersit, holiday, season, windpseed</t>
+  </si>
+  <si>
+    <t>int, weathersit, holiday, season, yr</t>
+  </si>
+  <si>
+    <t>int, weathersit, holiday, season, leaflets</t>
+  </si>
+  <si>
+    <t>0.440</t>
   </si>
 </sst>
 </file>
@@ -418,7 +385,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +401,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -558,11 +531,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -879,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4C426C-51C6-459F-B9F6-A722EB6EE2C8}">
   <dimension ref="A2:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1491,7 +1462,7 @@
       <c r="A59" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -1499,20 +1470,20 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="11"/>
+        <v>89</v>
+      </c>
+      <c r="C60" s="19"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B61" s="19" t="s">
-        <v>88</v>
+      <c r="B61" t="s">
+        <v>90</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>16</v>
@@ -1522,8 +1493,8 @@
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="19" t="s">
-        <v>88</v>
+      <c r="B62" t="s">
+        <v>91</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>16</v>
@@ -1533,52 +1504,52 @@
       <c r="A63" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" t="s">
         <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>88</v>
+        <v>92</v>
+      </c>
+      <c r="B64" t="s">
+        <v>93</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="B65" t="s">
+        <v>95</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>16</v>
+      <c r="A66" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>88</v>
+        <v>99</v>
+      </c>
+      <c r="B67" t="s">
+        <v>98</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>16</v>
@@ -1586,10 +1557,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>91</v>
+        <v>100</v>
+      </c>
+      <c r="B68" t="s">
+        <v>101</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>16</v>
@@ -1597,10 +1568,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>88</v>
+        <v>102</v>
+      </c>
+      <c r="B69" t="s">
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>16</v>
@@ -1608,21 +1579,21 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>91</v>
+        <v>103</v>
+      </c>
+      <c r="B70" t="s">
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
-        <v>96</v>
+      <c r="A71" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>16</v>
@@ -1639,7 +1610,7 @@
       <c r="A73" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C73" s="8" t="s">
@@ -1647,134 +1618,54 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>99</v>
-      </c>
+      <c r="A74" s="1"/>
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="A82" s="9"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="11"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Task 3/Forward_Selection.xlsx
+++ b/Task 3/Forward_Selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akira\Documents\GitHub\Introducion-to-Data-Science-Repo\Task 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43926F7D-FED0-4991-9972-7A7E8F762711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E090B9-8321-4F19-B3CF-A09A80777A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{D245B0E1-2E4B-4AAE-8376-0F66399939BF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="127">
   <si>
     <t>Features</t>
   </si>
@@ -354,6 +354,69 @@
   </si>
   <si>
     <t>0.440</t>
+  </si>
+  <si>
+    <t>0.406</t>
+  </si>
+  <si>
+    <t>int, leaflets</t>
+  </si>
+  <si>
+    <t>0.402</t>
+  </si>
+  <si>
+    <t>int, weekday</t>
+  </si>
+  <si>
+    <t>0.356</t>
+  </si>
+  <si>
+    <t>0.415</t>
+  </si>
+  <si>
+    <t>int, price reduction, atemp</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>int, price reduction, weathersit</t>
+  </si>
+  <si>
+    <t>0.446</t>
+  </si>
+  <si>
+    <t>int, price reduction, weathersit, holiday</t>
+  </si>
+  <si>
+    <t>0.434</t>
+  </si>
+  <si>
+    <t>int, price reduction, weathersit, mnth</t>
+  </si>
+  <si>
+    <t>int, price reduction, weathersit, season</t>
+  </si>
+  <si>
+    <t>int, price reduction, weathersit, workingday</t>
+  </si>
+  <si>
+    <t>0.443</t>
+  </si>
+  <si>
+    <t>int, price reduction, weathersit, windspeed</t>
+  </si>
+  <si>
+    <t>0.427</t>
+  </si>
+  <si>
+    <t>int, price reduction, weathersit, yr</t>
+  </si>
+  <si>
+    <t>instat, season, yr, mnth, holiday, weekday, workingday, weathersit, atemp, windspeed, leaflets, price reduction</t>
+  </si>
+  <si>
+    <t>0.481</t>
   </si>
 </sst>
 </file>
@@ -503,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -516,6 +579,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,9 +597,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -848,23 +915,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4C426C-51C6-459F-B9F6-A722EB6EE2C8}">
-  <dimension ref="A2:C85"/>
+  <dimension ref="A2:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="59.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="95.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
@@ -1008,11 +1075,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
@@ -1156,11 +1223,11 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
@@ -1304,11 +1371,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
@@ -1452,11 +1519,11 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="14"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="17"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
@@ -1470,13 +1537,13 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="19"/>
+      <c r="C60" s="14"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
@@ -1534,13 +1601,13 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1599,77 +1666,168 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="12" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="14"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="6" t="s">
+      <c r="B73" s="16"/>
+      <c r="C73" s="17"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B74" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="1"/>
-      <c r="C74" s="2"/>
-    </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="1"/>
-      <c r="C76" s="2"/>
+      <c r="A76" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="1"/>
-      <c r="C77" s="2"/>
+      <c r="A77" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="1"/>
-      <c r="C78" s="2"/>
+      <c r="A78" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="1"/>
-      <c r="C79" s="2"/>
+      <c r="A79" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="1"/>
-      <c r="C80" s="2"/>
+      <c r="A80" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="1"/>
-      <c r="C81" s="2"/>
+      <c r="A81" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="9"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="11"/>
+      <c r="A82" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="1"/>
-      <c r="C83" s="2"/>
+      <c r="A83" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="1"/>
-      <c r="C84" s="2"/>
+      <c r="A84" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="3"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="5"/>
+      <c r="A85" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A30:C30"/>

--- a/Task 3/Forward_Selection.xlsx
+++ b/Task 3/Forward_Selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akira\Documents\GitHub\Introducion-to-Data-Science-Repo\Task 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E090B9-8321-4F19-B3CF-A09A80777A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D707BB8-05C0-46A1-94EB-1A2795BA6827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{D245B0E1-2E4B-4AAE-8376-0F66399939BF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="128">
   <si>
     <t>Features</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t>0.481</t>
+  </si>
+  <si>
+    <t>Bagging Resgrssor</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -597,10 +600,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -917,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4C426C-51C6-459F-B9F6-A722EB6EE2C8}">
   <dimension ref="A2:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1670,7 +1669,7 @@
       <c r="A72" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="10" t="s">
         <v>126</v>
       </c>
       <c r="C72" s="11" t="s">
@@ -1679,7 +1678,7 @@
     </row>
     <row r="73" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="15" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="B73" s="16"/>
       <c r="C73" s="17"/>
@@ -1688,7 +1687,7 @@
       <c r="A74" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C74" s="8" t="s">
@@ -1699,7 +1698,7 @@
       <c r="A75" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B75" t="s">
         <v>106</v>
       </c>
       <c r="C75" s="2"/>
@@ -1708,7 +1707,7 @@
       <c r="A76" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" t="s">
         <v>108</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -1719,7 +1718,7 @@
       <c r="A77" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" t="s">
         <v>110</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -1730,7 +1729,7 @@
       <c r="A78" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="B78" t="s">
         <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -1741,7 +1740,7 @@
       <c r="A79" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B79" s="20" t="s">
+      <c r="B79" t="s">
         <v>113</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -1752,7 +1751,7 @@
       <c r="A80" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="B80" s="10" t="s">
         <v>115</v>
       </c>
       <c r="C80" s="11" t="s">
@@ -1763,7 +1762,7 @@
       <c r="A81" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B81" s="20" t="s">
+      <c r="B81" t="s">
         <v>117</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -1774,7 +1773,7 @@
       <c r="A82" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B82" s="20" t="s">
+      <c r="B82" t="s">
         <v>105</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -1785,7 +1784,7 @@
       <c r="A83" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="13" t="s">
         <v>117</v>
       </c>
       <c r="C83" s="14" t="s">
@@ -1796,7 +1795,7 @@
       <c r="A84" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B84" t="s">
         <v>121</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -1807,7 +1806,7 @@
       <c r="A85" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="B85" t="s">
         <v>123</v>
       </c>
       <c r="C85" s="2" t="s">

--- a/Task 3/Forward_Selection.xlsx
+++ b/Task 3/Forward_Selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akira\Documents\GitHub\Introducion-to-Data-Science-Repo\Task 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D707BB8-05C0-46A1-94EB-1A2795BA6827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9314DC-2E87-4454-B3E8-29274EF48E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{D245B0E1-2E4B-4AAE-8376-0F66399939BF}"/>
   </bookViews>
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4C426C-51C6-459F-B9F6-A722EB6EE2C8}">
   <dimension ref="A2:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:C73"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
